--- a/BRPControl.xlsx
+++ b/BRPControl.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bai\ibm\projection\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\IBM\thsod IBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="842" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="842" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AdHocBRP" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="HandlingMTheoBRP" sheetId="10" r:id="rId11"/>
     <sheet name="FisheryProbTheoBRP" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,6 +380,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -415,6 +432,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -594,7 +628,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +657,7 @@
         <v>46</v>
       </c>
       <c r="B3" s="15">
-        <v>1985</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -639,7 +673,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="15">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -701,7 +735,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1276,7 +1310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
@@ -3695,7 +3729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
